--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10543\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3119E76-1BA1-4B77-9DAB-C28489DD55B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -59,15 +58,6 @@
     <t>角色标签输入规则</t>
   </si>
   <si>
-    <t>例子</t>
-  </si>
-  <si>
-    <t>角色至少需要分配一个；如有多个角色，以英文逗号分割，中间不要有空格</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN,TENANT_MEMBER</t>
-  </si>
-  <si>
     <t>密码取值规则</t>
   </si>
   <si>
@@ -99,13 +89,41 @@
   </si>
   <si>
     <t>角色标签*</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织成员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -119,9 +137,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,11 +186,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -186,9 +246,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,17 +538,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="1025" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
@@ -562,10 +641,8 @@
         <v>11</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="10"/>
@@ -573,15 +650,13 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -590,8 +665,8 @@
     <row r="8" spans="1:10">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -600,118 +675,177 @@
     <row r="9" spans="1:10">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+    <row r="15" spans="1:10" ht="39" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G1:J14"/>
+  <mergeCells count="6">
+    <mergeCell ref="G1:J18"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:D9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" activeCellId="1" sqref="F5 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -725,13 +859,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -740,14 +874,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="12"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{D55C27D2-5EED-4E05-AABC-690BB8AD1FA5}">
-      <formula1>"TENANT_ADMIN,TENANT_MEMBER"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>README!$B$12:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10543\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12934\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>邮箱*</t>
-  </si>
-  <si>
-    <t>角色标签*</t>
   </si>
   <si>
     <t>角色名称</t>
@@ -103,26 +100,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TENANT_ADMIN</t>
+    <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TENANT_MEMBER</t>
+    <t>角色编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>角色标签</t>
+    <t>administrator</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
+    <t>member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义角色编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -141,6 +150,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -234,18 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,12 +255,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,36 +552,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="27.95" customHeight="1">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="27.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -587,10 +600,10 @@
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
@@ -607,10 +620,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
@@ -625,214 +638,228 @@
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="42" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.2">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.2">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="39" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="20"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-    </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G1:J18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G1:J19"/>
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -844,17 +871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="F5 C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="1023" width="11" customWidth="1"/>
-    <col min="1024" max="1025" width="9.625" customWidth="1"/>
+    <col min="1024" max="1025" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -865,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -875,7 +903,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="12"/>
+      <c r="B2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -884,11 +912,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>README!$B$12:$B$13</xm:f>
+            <xm:f>README!$B$12:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12934\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="用户导入模版" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -37,9 +37,6 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>角色标签</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
@@ -125,6 +122,10 @@
   </si>
   <si>
     <t>自定义角色编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -150,6 +151,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,27 +257,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,7 +557,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -566,20 +568,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="27.9" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -591,253 +593,253 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="42" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="16.2">
       <c r="A12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="16.2">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="A16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -887,19 +889,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2376" windowHeight="0" tabRatio="500"/>
+    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -37,6 +32,9 @@
     <t>邮箱</t>
   </si>
   <si>
+    <t>角色编码</t>
+  </si>
+  <si>
     <t>密码</t>
   </si>
   <si>
@@ -55,6 +53,30 @@
     <t>角色标签输入规则</t>
   </si>
   <si>
+    <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>自定义角色</t>
+  </si>
+  <si>
+    <t>自定义角色编码</t>
+  </si>
+  <si>
     <t>密码取值规则</t>
   </si>
   <si>
@@ -64,7 +86,7 @@
     <t>无输入值</t>
   </si>
   <si>
-    <t>abcd1234</t>
+    <t>租户或平台的默认密码</t>
   </si>
   <si>
     <t>有输入值</t>
@@ -85,55 +107,20 @@
     <t>邮箱*</t>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织成员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>角色编码*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义角色编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -141,41 +128,358 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -224,73 +528,348 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,380 +1127,374 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="27.9" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="27.9" customHeight="1" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:10">
+      <c r="A16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:10">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="42" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.2">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.2">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="30.9" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="G1:J19"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.2727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="1023" width="11" customWidth="1"/>
-    <col min="1024" max="1025" width="9.6328125" customWidth="1"/>
+    <col min="1024" max="1025" width="9.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C$1:C$1048576">
+      <formula1>README!$B$12:$B$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>README!$B$12:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="500"/>
+    <workbookView windowWidth="21923" windowHeight="10020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>角色编码</t>
+  </si>
+  <si>
+    <t>登录名</t>
   </si>
   <si>
     <t>密码</t>
@@ -115,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -164,9 +167,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,13 +235,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -192,94 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,15 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -570,10 +564,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -603,15 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,13 +609,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -644,16 +647,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,115 +665,115 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,20 +1136,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="1025" width="11" customWidth="1"/>
+    <col min="3" max="1026" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:10">
+    <row r="1" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1155,14 +1158,15 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="27.9" customHeight="1" spans="1:10">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="27.9" customHeight="1" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1181,244 +1185,252 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="8:11">
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" ht="42" customHeight="1" spans="1:10">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:10">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>20</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" ht="39" customHeight="1" spans="1:10">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" ht="39" customHeight="1" spans="1:11">
       <c r="A16" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:10">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:11">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>7</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>24</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>26</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1435,12 +1447,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G1:J19"/>
     <mergeCell ref="A7:B9"/>
+    <mergeCell ref="H1:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1451,45 +1463,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="1023" width="11" customWidth="1"/>
-    <col min="1024" max="1025" width="9.63636363636364" customWidth="1"/>
+    <col min="1" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="11" customWidth="1"/>
+    <col min="1025" max="1026" width="9.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D$1:D$1048576">
       <formula1>README!$B$12:$B$14</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/templates/userTemplates.xlsx
+++ b/src/main/resources/templates/userTemplates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21923" windowHeight="10020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="21923" windowHeight="10020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -56,7 +56,13 @@
     <t>角色标签输入规则</t>
   </si>
   <si>
+    <t>登录名输入规则</t>
+  </si>
+  <si>
     <t>角色标签仅能从下拉框中的预置标签中选择；仅能选择一个</t>
+  </si>
+  <si>
+    <t>登录名只能包含数字、字母、"_"，不能以"_"开头且不超过100字符；不指定由系统随机生成</t>
   </si>
   <si>
     <t>角色名称</t>
@@ -1138,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1247,8 +1253,10 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="6"/>
@@ -1258,11 +1266,14 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1272,7 +1283,8 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1282,7 +1294,8 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1300,7 +1313,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -1313,10 +1326,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11"/>
       <c r="H12" s="6"/>
@@ -1326,10 +1339,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11"/>
       <c r="H13" s="6"/>
@@ -1339,10 +1352,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1359,7 +1372,7 @@
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:11">
       <c r="A16" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="18"/>
       <c r="H16" s="6"/>
@@ -1369,7 +1382,7 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="30.9" customHeight="1" spans="1:11">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
@@ -1381,10 +1394,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1393,10 +1406,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1405,13 +1418,13 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
@@ -1419,18 +1432,18 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1446,13 +1459,15 @@
       <c r="B28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="H1:K19"/>
+    <mergeCell ref="D7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1465,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1481,16 +1496,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
